--- a/assets/files/Formulaire de Produits.xlsx
+++ b/assets/files/Formulaire de Produits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
   <si>
     <t>ID_Unité_Circulaire</t>
   </si>
@@ -205,18 +205,9 @@
     <t>Panier 3L de pêche</t>
   </si>
   <si>
-    <t>Nom du produit</t>
-  </si>
-  <si>
     <t>Marque</t>
   </si>
   <si>
-    <t>Date de début</t>
-  </si>
-  <si>
-    <t>Date de fin</t>
-  </si>
-  <si>
     <t>Format</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>Unité</t>
   </si>
   <si>
-    <t>Prix</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ville d'origine </t>
   </si>
   <si>
@@ -236,6 +224,63 @@
   </si>
   <si>
     <t>Lien vers l'image</t>
+  </si>
+  <si>
+    <t>produit 1</t>
+  </si>
+  <si>
+    <t>Nom du produit*</t>
+  </si>
+  <si>
+    <t>Unité*</t>
+  </si>
+  <si>
+    <t>Prix*</t>
+  </si>
+  <si>
+    <t>Date de début (YYYY-MM-DD)*</t>
+  </si>
+  <si>
+    <t>Date de fin  (YYYY-MM-DD)*</t>
+  </si>
+  <si>
+    <t>marque 1</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>4x1</t>
+  </si>
+  <si>
+    <t>produit 2</t>
+  </si>
+  <si>
+    <t>marque 5</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Obligatoire</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>Liste déroulante</t>
+  </si>
+  <si>
+    <t>https://media.gettyimages.com/photos/blue-plastic-shopping-basket-full-of-groceries-picture-id482788933?b=1&amp;k=6&amp;m=482788933&amp;s=612x612&amp;w=0&amp;h=3M-r7hbQGodrCGAvcV8Gp_NoGcnYHgpWHqWoqyoxkQc=</t>
+  </si>
+  <si>
+    <t>http://saveplanet.gr/images/news/paidik13disk.jpg</t>
   </si>
 </sst>
 </file>
@@ -247,7 +292,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +331,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +375,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,13 +488,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -445,15 +529,30 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="10">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -756,253 +855,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="23" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="20">
+      <c r="A1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="20">
+      <c r="A2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
+      <c r="E2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" s="19">
-        <v>7</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="H2" s="19">
+        <v>1.99</v>
+      </c>
+      <c r="I2" s="21">
+        <v>41266</v>
+      </c>
+      <c r="J2" s="21">
+        <v>41268</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="E3" s="19"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="19"/>
+      <c r="F3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="19">
+        <v>5</v>
+      </c>
+      <c r="H3" s="19">
+        <v>2.99</v>
+      </c>
+      <c r="I3" s="21">
+        <v>41266</v>
+      </c>
+      <c r="J3" s="21">
+        <v>41268</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="H4" s="19">
+        <v>5</v>
+      </c>
+      <c r="I4" s="21">
+        <v>41266</v>
+      </c>
+      <c r="J4" s="21">
+        <v>41268</v>
+      </c>
       <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="19">
+        <v>1.99</v>
+      </c>
+      <c r="I5" s="21">
+        <v>44188</v>
+      </c>
+      <c r="J5" s="21">
+        <v>44190</v>
+      </c>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:14">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:14">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:14">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:14">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:14">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:14">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:14">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11">
@@ -1011,11 +1189,11 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11">
@@ -1024,11 +1202,11 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11">
@@ -1037,11 +1215,11 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11">
@@ -1050,11 +1228,11 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11">
@@ -1063,11 +1241,11 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11">
@@ -1076,11 +1254,11 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="21"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11">
@@ -1089,14 +1267,17 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1152,7 +1333,7 @@
       </c>
       <c r="F1" s="2"/>
       <c r="I1" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10">
